--- a/m1/Ejercicios/20191028/Inmuebles.xlsx
+++ b/m1/Ejercicios/20191028/Inmuebles.xlsx
@@ -118,8 +118,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="166" formatCode="0\ &quot;inmuebles&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="165" formatCode="0\ &quot;inmuebles&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -186,17 +186,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -206,19 +200,32 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="5">
     <dxf>
       <font>
         <b/>
-        <i/>
+        <i val="0"/>
         <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
@@ -240,41 +247,6 @@
         <b/>
         <i/>
         <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
       </font>
     </dxf>
   </dxfs>
@@ -556,7 +528,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,19 +542,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -593,19 +565,19 @@
       <c r="B2">
         <v>80</v>
       </c>
-      <c r="C2" s="4">
-        <f>B2*$B$17*(1-E16)</f>
-        <v>136000</v>
-      </c>
-      <c r="D2" s="4">
-        <f>C2*(1+$B$19)</f>
-        <v>157760</v>
-      </c>
-      <c r="E2" s="5">
-        <f ca="1">TODAY()+IF(ISNUMBER(SEARCH("*Piso*",A2)),120,0)+IF(ISNUMBER(SEARCH("*Ático*",A2)),90,0)+IF(ISNUMBER(SEARCH("*Bajo*",A2)),365,0)</f>
-        <v>43886</v>
-      </c>
-      <c r="F2" s="5"/>
+      <c r="C2" s="3">
+        <f>B2*VLOOKUP(SUBSTITUTE(LEFT(A2,FIND(" ",A2)-1),"Á","A"),$A$15:$B$17,2,0)</f>
+        <v>160000</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D8" si="0">C2*(1+$B$19)</f>
+        <v>185600</v>
+      </c>
+      <c r="E2" s="4">
+        <f t="shared" ref="E2:E8" ca="1" si="1">TODAY()+IF(ISNUMBER(SEARCH("*Piso*",A2)),120,0)+IF(ISNUMBER(SEARCH("*Ático*",A2)),90,0)+IF(ISNUMBER(SEARCH("*Bajo*",A2)),365,0)</f>
+        <v>43889</v>
+      </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -614,19 +586,19 @@
       <c r="B3">
         <v>85</v>
       </c>
-      <c r="C3" s="4">
-        <f>B3*$B$15*(1-$E$16)</f>
-        <v>158950</v>
-      </c>
-      <c r="D3" s="4">
-        <f>C3*(1+$B$19)</f>
-        <v>184382</v>
-      </c>
-      <c r="E3" s="5">
-        <f ca="1">TODAY()+IF(ISNUMBER(SEARCH("*Piso*",A3)),120,0)+IF(ISNUMBER(SEARCH("*Ático*",A3)),90,0)+IF(ISNUMBER(SEARCH("*Bajo*",A3)),365,0)</f>
-        <v>43856</v>
-      </c>
-      <c r="F3" s="5"/>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C8" si="2">B3*VLOOKUP(SUBSTITUTE(LEFT(A3,FIND(" ",A3)-1),"Á","A"),$A$15:$B$17,2,0)</f>
+        <v>187000</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" si="0"/>
+        <v>216919.99999999997</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43859</v>
+      </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -635,19 +607,19 @@
       <c r="B4">
         <v>90</v>
       </c>
-      <c r="C4" s="4">
-        <f>B4*$B$17*(1-E15)</f>
-        <v>144000</v>
-      </c>
-      <c r="D4" s="4">
-        <f>C4*(1+$B$19)</f>
-        <v>167040</v>
-      </c>
-      <c r="E4" s="5">
-        <f ca="1">TODAY()+IF(ISNUMBER(SEARCH("*Piso*",A4)),120,0)+IF(ISNUMBER(SEARCH("*Ático*",A4)),90,0)+IF(ISNUMBER(SEARCH("*Bajo*",A4)),365,0)</f>
-        <v>43886</v>
-      </c>
-      <c r="F4" s="5"/>
+      <c r="C4" s="3">
+        <f t="shared" si="2"/>
+        <v>180000</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>208800</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43889</v>
+      </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -656,19 +628,19 @@
       <c r="B5">
         <v>90</v>
       </c>
-      <c r="C5" s="4">
-        <f>B5*$B$15*(1-$E$15)</f>
-        <v>158400</v>
-      </c>
-      <c r="D5" s="4">
-        <f>C5*(1+$B$19)</f>
-        <v>183744</v>
-      </c>
-      <c r="E5" s="5">
-        <f ca="1">TODAY()+IF(ISNUMBER(SEARCH("*Piso*",A5)),120,0)+IF(ISNUMBER(SEARCH("*Ático*",A5)),90,0)+IF(ISNUMBER(SEARCH("*Bajo*",A5)),365,0)</f>
-        <v>43856</v>
-      </c>
-      <c r="F5" s="5"/>
+      <c r="C5" s="3">
+        <f t="shared" si="2"/>
+        <v>198000</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>229679.99999999997</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43859</v>
+      </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -677,19 +649,19 @@
       <c r="B6">
         <v>95</v>
       </c>
-      <c r="C6" s="4">
-        <f>B6*$B$17*(1-E15)</f>
-        <v>152000</v>
-      </c>
-      <c r="D6" s="4">
-        <f>C6*(1+$B$19)</f>
-        <v>176320</v>
-      </c>
-      <c r="E6" s="5">
-        <f ca="1">TODAY()+IF(ISNUMBER(SEARCH("*Piso*",A6)),120,0)+IF(ISNUMBER(SEARCH("*Ático*",A6)),90,0)+IF(ISNUMBER(SEARCH("*Bajo*",A6)),365,0)</f>
-        <v>43886</v>
-      </c>
-      <c r="F6" s="5"/>
+      <c r="C6" s="3">
+        <f t="shared" si="2"/>
+        <v>190000</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>220399.99999999997</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>43889</v>
+      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -698,19 +670,19 @@
       <c r="B7">
         <v>120</v>
       </c>
-      <c r="C7" s="4">
-        <f>B7*$B$16*(1-E15)</f>
-        <v>172800</v>
-      </c>
-      <c r="D7" s="4">
-        <f>C7*(1+$B$19)</f>
-        <v>200448</v>
-      </c>
-      <c r="E7" s="5">
-        <f ca="1">TODAY()+IF(ISNUMBER(SEARCH("*Piso*",A7)),120,0)+IF(ISNUMBER(SEARCH("*Ático*",A7)),90,0)+IF(ISNUMBER(SEARCH("*Bajo*",A7)),365,0)</f>
-        <v>44131</v>
-      </c>
-      <c r="F7" s="5"/>
+      <c r="C7" s="3">
+        <f t="shared" si="2"/>
+        <v>216000</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>250559.99999999997</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>44134</v>
+      </c>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -719,103 +691,103 @@
       <c r="B8">
         <v>150</v>
       </c>
-      <c r="C8" s="4">
-        <f>B8*$B$16*(1-E15)</f>
-        <v>216000</v>
-      </c>
-      <c r="D8" s="4">
-        <f>C8*(1+$B$19)</f>
-        <v>250559.99999999997</v>
-      </c>
-      <c r="E8" s="5">
-        <f ca="1">TODAY()+IF(ISNUMBER(SEARCH("*Piso*",A8)),120,0)+IF(ISNUMBER(SEARCH("*Ático*",A8)),90,0)+IF(ISNUMBER(SEARCH("*Bajo*",A8)),365,0)</f>
-        <v>44131</v>
-      </c>
-      <c r="F8" s="5"/>
+      <c r="C8" s="3">
+        <f t="shared" si="2"/>
+        <v>270000</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>313200</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>44134</v>
+      </c>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
-        <f t="shared" ref="B9:D9" si="0">SUM(B2:B8)</f>
+      <c r="B9" s="6">
+        <f t="shared" ref="B9:D9" si="3">SUM(B2:B8)</f>
         <v>710</v>
       </c>
-      <c r="C9" s="6">
-        <f t="shared" si="0"/>
-        <v>1138150</v>
-      </c>
-      <c r="D9" s="6">
-        <f t="shared" si="0"/>
-        <v>1320254</v>
+      <c r="C9" s="5">
+        <f t="shared" si="3"/>
+        <v>1401000</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="3"/>
+        <v>1625160</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <f>AVERAGE(B2:B8)</f>
         <v>101.42857142857143</v>
       </c>
-      <c r="C10" s="6">
-        <f t="shared" ref="C10:D10" si="1">AVERAGE(C2:C8)</f>
-        <v>162592.85714285713</v>
-      </c>
-      <c r="D10" s="6">
-        <f t="shared" si="1"/>
-        <v>188607.71428571429</v>
+      <c r="C10" s="5">
+        <f t="shared" ref="C10:D10" si="4">AVERAGE(C2:C8)</f>
+        <v>200142.85714285713</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="4"/>
+        <v>232165.71428571429</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <f>MAX(B2:B8)</f>
         <v>150</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <f>MAX(C2:C8)</f>
-        <v>216000</v>
-      </c>
-      <c r="D11" s="13">
+        <v>270000</v>
+      </c>
+      <c r="D11" s="11">
         <f>MAX(D2:D8)</f>
-        <v>250559.99999999997</v>
+        <v>313200</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <f>MIN(B2:B8)</f>
         <v>80</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="11">
         <f>MIN(C2:C8)</f>
-        <v>136000</v>
-      </c>
-      <c r="D12" s="13">
+        <v>160000</v>
+      </c>
+      <c r="D12" s="11">
         <f>MIN(D2:D8)</f>
-        <v>157760</v>
+        <v>185600</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="D14" s="10" t="s">
+      <c r="B14" s="12"/>
+      <c r="D14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>2200</v>
       </c>
       <c r="D15" t="s">
@@ -829,7 +801,7 @@
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>1800</v>
       </c>
       <c r="D16" t="s">
@@ -843,12 +815,12 @@
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>2000</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="1">
@@ -863,65 +835,65 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
-        <f t="shared" ref="A22:A27" si="2">LOWER(MID(A3,1,1) &amp; MID(A3,3,1))</f>
+        <f t="shared" ref="A22:A27" si="5">LOWER(MID(A3,1,1) &amp; MID(A3,3,1))</f>
         <v>ái</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>ps</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>ái</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>ps</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>bj</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>bj</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="A30" s="7">
         <f>COUNTIF(B2:B8,"&gt;=90")</f>
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <f>SUMIF(B2:B8,"&gt;90",C2:C8)</f>
-        <v>540800</v>
+        <v>676000</v>
       </c>
     </row>
   </sheetData>
@@ -936,11 +908,11 @@
     <mergeCell ref="A32:D32"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C8">
-    <cfRule type="top10" dxfId="5" priority="2" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="4" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A8">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>C2&gt;155000</formula>
     </cfRule>
   </conditionalFormatting>
